--- a/branches/master/StructureDefinition-datetime-item.xlsx
+++ b/branches/master/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-datetime-item.xlsx
+++ b/branches/master/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-datetime-item.xlsx
+++ b/branches/master/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-datetime-item.xlsx
+++ b/branches/master/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
